--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.0125.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.0125.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.88790560471976</v>
+        <v>92.71386430678466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2002034180079742</v>
+        <v>0.1889024240343133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9188790560471976</v>
+        <v>0.9271386430678467</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9181219533894198</v>
+        <v>0.9261529919773743</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.61494476595819</v>
+        <v>88.55561034265003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3070521826894643</v>
+        <v>0.3001579989058276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8761494476595818</v>
+        <v>0.8855561034265003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8673483924041159</v>
+        <v>0.88265938312398</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.12389380530973</v>
+        <v>93.1858407079646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2027273886613936</v>
+        <v>0.1716773557602816</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9212389380530974</v>
+        <v>0.931858407079646</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9183354237286349</v>
+        <v>0.930212377291082</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.83011963771312</v>
+        <v>87.99565740188064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2025003536080476</v>
+        <v>0.3215428189995388</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9183011963771313</v>
+        <v>0.8799565740188063</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9193411204438806</v>
+        <v>0.8691670951082002</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.49221014022613</v>
+        <v>72.49673440081662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9678316989525533</v>
+        <v>0.8652887304701531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6949221014022613</v>
+        <v>0.7249673440081661</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6731427488458236</v>
+        <v>0.7011829658941844</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.03330478637358</v>
+        <v>87.14037318661926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3107376088310654</v>
+        <v>0.3723462468231446</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9003330478637359</v>
+        <v>0.8714037318661927</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8922451534383349</v>
+        <v>0.8680258566789277</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.2330383480826</v>
+        <v>91.03244837758112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2870454330462963</v>
+        <v>0.2359736755567913</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8923303834808258</v>
+        <v>0.9103244837758112</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8889637663287054</v>
+        <v>0.909268074296202</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.50737463126843</v>
+        <v>90.06193825206101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1998268586394261</v>
+        <v>0.2347755922384673</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9250737463126842</v>
+        <v>0.90061938252061</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9226282362701825</v>
+        <v>0.9013290565775846</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.23598820058996</v>
+        <v>89.61669218591857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2464754602056928</v>
+        <v>0.2703730565549146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9023598820058997</v>
+        <v>0.8961669218591857</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8974285905251576</v>
+        <v>0.8912167507859911</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.80530973451327</v>
+        <v>86.40117994100295</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4336023162264609</v>
+        <v>0.3763191048316912</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8380530973451327</v>
+        <v>0.8640117994100296</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8313337796578525</v>
+        <v>0.8581588251431127</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.47787610619469</v>
+        <v>82.41922507980173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7279729066424504</v>
+        <v>0.7407338249186675</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8247787610619468</v>
+        <v>0.8241922507980173</v>
       </c>
       <c r="E12" t="n">
-        <v>0.817585407971802</v>
+        <v>0.8178633896147203</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.76713466379468</v>
+        <v>79.2330383480826</v>
       </c>
       <c r="C13" t="n">
-        <v>0.589519956286919</v>
+        <v>0.67131718758028</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8076713466379466</v>
+        <v>0.792330383480826</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8056124044808162</v>
+        <v>0.7757728069319285</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.92625368731564</v>
+        <v>96.78466076696165</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1353194700140496</v>
+        <v>0.08471748648110708</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9492625368731563</v>
+        <v>0.9678466076696164</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9489728644037804</v>
+        <v>0.9679573380237045</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.18879056047197</v>
+        <v>92.30088495575221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.133040759417645</v>
+        <v>0.1789418456064747</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9418879056047198</v>
+        <v>0.923008849557522</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9407002934450958</v>
+        <v>0.9205705960426844</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.75221238938053</v>
+        <v>97.1976401179941</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1186288764643905</v>
+        <v>0.06860648240493296</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9575221238938052</v>
+        <v>0.9719764011799409</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9564349575439761</v>
+        <v>0.971538456421061</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.45842380412749</v>
+        <v>88.47571922479146</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3374989791795885</v>
+        <v>0.3387782554111058</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8845842380412747</v>
+        <v>0.8847571922479144</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8798796728585052</v>
+        <v>0.879405064260716</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.69303367676191</v>
+        <v>87.34547876711737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.465403816929999</v>
+        <v>0.3216900131180106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8469303367676192</v>
+        <v>0.8734547876711737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8374267890498274</v>
+        <v>0.8715017772670116</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.36090277597557</v>
+        <v>81.10355625913719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5444033963857995</v>
+        <v>0.4637651983512721</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8036090277597557</v>
+        <v>0.8110355625913719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7986756491021494</v>
+        <v>0.8024502885527106</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.03001756070555</v>
+        <v>90.73746312684366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2673674023079608</v>
+        <v>0.226034257793799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9003001756070554</v>
+        <v>0.9073746312684365</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8998898918218012</v>
+        <v>0.9076748400346339</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.59376811218091</v>
+        <v>82.89794894419501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6808526541106403</v>
+        <v>0.4912409917761882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.795937681121809</v>
+        <v>0.8289794894419502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7832575842619245</v>
+        <v>0.8272081991269701</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.13214647185529</v>
+        <v>69.60259171792144</v>
       </c>
       <c r="C6" t="n">
-        <v>1.090847675494539</v>
+        <v>0.9395733988067756</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6613214647185529</v>
+        <v>0.6960259171792144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6361660551646612</v>
+        <v>0.6698598540108465</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.42456249621537</v>
+        <v>83.47260789453196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5514947014550369</v>
+        <v>0.5317253351211548</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7942456249621537</v>
+        <v>0.8347260789453197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.789314471690811</v>
+        <v>0.8249526413239486</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.69318073685758</v>
+        <v>80.27465635515878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9356269456310352</v>
+        <v>0.5068341084445517</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7169318073685759</v>
+        <v>0.8027465635515878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6912455799400903</v>
+        <v>0.7935632119891901</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.71954774695283</v>
+        <v>80.12007024282217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5205616720593146</v>
+        <v>0.5924568174717326</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7971954774695283</v>
+        <v>0.8012007024282217</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7962357521577856</v>
+        <v>0.7989753357235319</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.34113616899801</v>
+        <v>88.31962214206006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3803114297799766</v>
+        <v>0.3080622101357827</v>
       </c>
       <c r="D10" t="n">
-        <v>0.85341136168998</v>
+        <v>0.8831962214206005</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8497486218171909</v>
+        <v>0.8833254701784508</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.77581120943952</v>
+        <v>80.6208531215668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.394411394711642</v>
+        <v>0.5373485009777748</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8377581120943953</v>
+        <v>0.8062085312156679</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8379531487544709</v>
+        <v>0.7916479588000025</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.41054853415687</v>
+        <v>75.28672393359804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6644507154269377</v>
+        <v>0.9637631868809422</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7941054853415687</v>
+        <v>0.7528672393359804</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7866249156002834</v>
+        <v>0.7439079637580019</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.23475116566752</v>
+        <v>79.52940769383818</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6972507958416827</v>
+        <v>0.6648515094770119</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7723475116566753</v>
+        <v>0.7952940769383818</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7560568282420749</v>
+        <v>0.7892121692687049</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.24188790560473</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2413750885413416</v>
+        <v>0.1251959660415499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9224188790560472</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E14" t="n">
-        <v>0.921277083802317</v>
+        <v>0.9452256991297631</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.5575221238938</v>
+        <v>88.28908554572271</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2797630894655715</v>
+        <v>0.3099789904371088</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8955752212389381</v>
+        <v>0.8828908554572271</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8839575162326387</v>
+        <v>0.8769256251002698</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.82591544909558</v>
+        <v>95.69321533923303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1409647164184814</v>
+        <v>0.1181380003802284</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9582591544909558</v>
+        <v>0.9569321533923304</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9584315377581245</v>
+        <v>0.9558217323110634</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1106,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.3356488089574</v>
+        <v>83.85770349801182</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5236723663039974</v>
+        <v>0.4733772323475922</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8233564880895741</v>
+        <v>0.8385770349801179</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8150840950264102</v>
+        <v>0.8321501844383401</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.38379224733778</v>
+        <v>72.51343004697273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.588747738301754</v>
+        <v>0.8790411533166964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7638379224733778</v>
+        <v>0.7251343004697273</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7503429350207107</v>
+        <v>0.7048038222646462</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.9303367676191</v>
+        <v>69.53226238981306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.800742224852244</v>
+        <v>0.8381048019044102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6693033676761909</v>
+        <v>0.6953226238981307</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6499079867615595</v>
+        <v>0.6777933146561045</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.26075485082052</v>
+        <v>79.18580610558915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6377142261092861</v>
+        <v>0.5968331079309185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7326075485082051</v>
+        <v>0.7918580610558915</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7253003838010408</v>
+        <v>0.7874603230577252</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.37785793994757</v>
+        <v>71.26108357338731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9559485481741528</v>
+        <v>0.8031422010312477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7037785793994757</v>
+        <v>0.7126108357338732</v>
       </c>
       <c r="E5" t="n">
-        <v>0.690975886625855</v>
+        <v>0.7029576856734964</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.88189344198479</v>
+        <v>63.63324942257286</v>
       </c>
       <c r="C6" t="n">
-        <v>1.398769812053069</v>
+        <v>1.220832154558351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5688189344198479</v>
+        <v>0.6363324942257286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5253670579424996</v>
+        <v>0.6016260846292181</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.73791295772455</v>
+        <v>74.62824072872601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7620474398136139</v>
+        <v>0.6740531876683236</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7273791295772455</v>
+        <v>0.7462824072872603</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7205954111308903</v>
+        <v>0.741839723248514</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.35703596051869</v>
+        <v>64.17728527063383</v>
       </c>
       <c r="C8" t="n">
-        <v>1.094105484895408</v>
+        <v>0.9604797210544348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6335703596051869</v>
+        <v>0.6417728527063382</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5921226110046405</v>
+        <v>0.6428523898227891</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.78336317788217</v>
+        <v>67.05784652116367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9577699375649293</v>
+        <v>0.9090926154827079</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6678336317788216</v>
+        <v>0.6705784652116368</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6476423315443184</v>
+        <v>0.6630649052649458</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.01088244707999</v>
+        <v>76.65758354311023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7211558101077874</v>
+        <v>0.725691252440447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6801088244708</v>
+        <v>0.7665758354311023</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6659387312012133</v>
+        <v>0.7503225548141997</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73.88939350686425</v>
+        <v>76.82869228972569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6952749725431204</v>
+        <v>0.6012311133400848</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7388939350686424</v>
+        <v>0.7682869228972569</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7347850110586525</v>
+        <v>0.7630291150852414</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.58746182925458</v>
+        <v>75.11777783544841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8303104867848259</v>
+        <v>0.7263315135302644</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7058746182925458</v>
+        <v>0.751177778354484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6846420848605732</v>
+        <v>0.75206597794521</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.08630697497384</v>
+        <v>67.13769150252165</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8818148759513861</v>
+        <v>1.030672812337677</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6708630697497384</v>
+        <v>0.6713769150252165</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6619583395622948</v>
+        <v>0.648509816108341</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.78639088573431</v>
+        <v>89.58926980337201</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3534928582482583</v>
+        <v>0.2991783793685803</v>
       </c>
       <c r="D14" t="n">
-        <v>0.867863908857343</v>
+        <v>0.89589269803372</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8626107171791295</v>
+        <v>0.896779630631842</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.45756451180372</v>
+        <v>83.30521890327771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3704225896979551</v>
+        <v>0.394133513943234</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8445756451180374</v>
+        <v>0.8330521890327771</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8365151552039387</v>
+        <v>0.8199910176942634</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.08154914834904</v>
+        <v>93.98783726502825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1146751893606658</v>
+        <v>0.1745298919112732</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9708154914834903</v>
+        <v>0.9398783726502824</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9704008953706518</v>
+        <v>0.9369812549039965</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72.97416644319301</v>
+        <v>74.97421834675619</v>
       </c>
       <c r="C17" t="n">
-        <v>0.744199479630564</v>
+        <v>0.7222231613212434</v>
       </c>
       <c r="D17" t="n">
-        <v>0.72974166443193</v>
+        <v>0.7497421834675618</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7146070358845313</v>
+        <v>0.7393385077200355</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.61949497833026</v>
+        <v>55.03006081367486</v>
       </c>
       <c r="C2" t="n">
-        <v>1.071224821607272</v>
+        <v>1.075799738864104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5361949497833026</v>
+        <v>0.5503006081367486</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5225711228010872</v>
+        <v>0.5414113715327449</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.36285781018866</v>
+        <v>58.36720040830803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9476480640470981</v>
+        <v>0.9548988913496336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5636285781018867</v>
+        <v>0.5836720040830803</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5341935028462939</v>
+        <v>0.5494474607832048</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.39274561198626</v>
+        <v>63.18333203574425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9034056320786477</v>
+        <v>0.8746452962358793</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6139274561198627</v>
+        <v>0.6318333203574426</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5978367080300113</v>
+        <v>0.6230764915323841</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.13676588897827</v>
+        <v>57.83397780257614</v>
       </c>
       <c r="C5" t="n">
-        <v>1.026393427451452</v>
+        <v>1.051587590575218</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6013676588897827</v>
+        <v>0.5783397780257615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5612385501168921</v>
+        <v>0.5608043456881828</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.32712220693951</v>
+        <v>61.12483672004083</v>
       </c>
       <c r="C6" t="n">
-        <v>1.071380689057211</v>
+        <v>0.9920673968891303</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5532712220693951</v>
+        <v>0.6112483672004083</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5210796230057982</v>
+        <v>0.590359256488729</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.45865448663051</v>
+        <v>59.60544641389631</v>
       </c>
       <c r="C7" t="n">
-        <v>1.004493123789628</v>
+        <v>0.9857998053232828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.604586544866305</v>
+        <v>0.5960544641389631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.59605628666133</v>
+        <v>0.5846486294263626</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.45339492556164</v>
+        <v>44.31041791018954</v>
       </c>
       <c r="C8" t="n">
-        <v>1.238611261049906</v>
+        <v>1.508734019597371</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4245339492556164</v>
+        <v>0.4431041791018953</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3979083011778444</v>
+        <v>0.3996144428945559</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.76176264500558</v>
+        <v>50.38244275469511</v>
       </c>
       <c r="C9" t="n">
-        <v>1.176340019702911</v>
+        <v>1.211433840791384</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4976176264500558</v>
+        <v>0.5038244275469511</v>
       </c>
       <c r="E9" t="n">
-        <v>0.471064840840037</v>
+        <v>0.4713348982500327</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.1947421690499</v>
+        <v>58.19678370920163</v>
       </c>
       <c r="C10" t="n">
-        <v>1.077508250872294</v>
+        <v>1.038262476523717</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5219474216904991</v>
+        <v>0.5819678370920164</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5088331325456653</v>
+        <v>0.5630063896556893</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.87580342390505</v>
+        <v>58.13380738587703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8612154662609101</v>
+        <v>0.8985719343026479</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6287580342390505</v>
+        <v>0.5813380738587705</v>
       </c>
       <c r="E11" t="n">
-        <v>0.622966933443531</v>
+        <v>0.5714973464297811</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57.77342364553326</v>
+        <v>58.43519407607332</v>
       </c>
       <c r="C12" t="n">
-        <v>1.068269009391467</v>
+        <v>0.9695930515726406</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5777342364553326</v>
+        <v>0.5843519407607333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.568610190415143</v>
+        <v>0.5597902443794762</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.35379198781997</v>
+        <v>55.51310997499978</v>
       </c>
       <c r="C13" t="n">
-        <v>1.258568101624648</v>
+        <v>0.97283201739192</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4835379198781997</v>
+        <v>0.5551310997499979</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4378698135814678</v>
+        <v>0.5351648703192657</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70.28114430055624</v>
+        <v>74.54493550982275</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7532841364542643</v>
+        <v>0.6203581268588703</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7028114430055623</v>
+        <v>0.7454493550982275</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6866685745176218</v>
+        <v>0.7433458498106205</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.46061817143746</v>
+        <v>78.25431015839237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4935764448096355</v>
+        <v>0.4535151167617489</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7746061817143747</v>
+        <v>0.7825431015839237</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7678190782679829</v>
+        <v>0.7813212924355465</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.95952387131376</v>
+        <v>85.84148651804946</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2639475706964731</v>
+        <v>0.3599458215137323</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9095952387131376</v>
+        <v>0.8584148651804947</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9095021316904152</v>
+        <v>0.859140581516486</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1806,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.96078974154909</v>
+        <v>61.25048947943609</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9477244012595878</v>
+        <v>0.9312030083034185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5996078974154909</v>
+        <v>0.612504894794361</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5802812526627414</v>
+        <v>0.5955975647428708</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.61828389518941</v>
+        <v>45.28213911885051</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0596402729551</v>
+        <v>1.557724591592948</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5361828389518941</v>
+        <v>0.4528213911885051</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5204908151391298</v>
+        <v>0.3906182175542067</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1890,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.4894852031592</v>
+        <v>54.71907196429036</v>
       </c>
       <c r="C3" t="n">
-        <v>1.092320819819967</v>
+        <v>1.023106732964516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5448948520315919</v>
+        <v>0.5471907196429034</v>
       </c>
       <c r="E3" t="n">
-        <v>0.506367664718674</v>
+        <v>0.5148974580217238</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1909,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.81420254500472</v>
+        <v>49.64532565160598</v>
       </c>
       <c r="C4" t="n">
-        <v>1.166733988126119</v>
+        <v>1.241461281975111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5181420254500472</v>
+        <v>0.4964532565160599</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5054990580255412</v>
+        <v>0.4581419309091793</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.37235616225054</v>
+        <v>52.79613145442435</v>
       </c>
       <c r="C5" t="n">
-        <v>1.462141388654709</v>
+        <v>1.227540883918603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4437235616225054</v>
+        <v>0.5279613145442434</v>
       </c>
       <c r="E5" t="n">
-        <v>0.392396145363657</v>
+        <v>0.4937586908604463</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1947,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.47456292874506</v>
+        <v>51.20338411231931</v>
       </c>
       <c r="C6" t="n">
-        <v>1.348456880450249</v>
+        <v>1.62440868136473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4947456292874506</v>
+        <v>0.5120338411231931</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4535153857594964</v>
+        <v>0.4467327943468048</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.30523620446544</v>
+        <v>49.34290089014611</v>
       </c>
       <c r="C7" t="n">
-        <v>1.455474108954271</v>
+        <v>1.373450544476509</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5530523620446544</v>
+        <v>0.4934290089014611</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5253071342625274</v>
+        <v>0.4569042327485409</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.3008417027829</v>
+        <v>29.94861547245218</v>
       </c>
       <c r="C8" t="n">
-        <v>1.675147154182196</v>
+        <v>1.961933840314547</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3730084170278289</v>
+        <v>0.2994861547245218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3179512571027895</v>
+        <v>0.2385962468309525</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.33626588465298</v>
+        <v>37.19080614884212</v>
       </c>
       <c r="C9" t="n">
-        <v>1.34908842643102</v>
+        <v>1.960036633412043</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4233626588465298</v>
+        <v>0.3719080614884212</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3908694042737076</v>
+        <v>0.3122462153084185</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.35296153080909</v>
+        <v>46.77479908995753</v>
       </c>
       <c r="C10" t="n">
-        <v>1.324496770898501</v>
+        <v>1.370947213470936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4235296153080909</v>
+        <v>0.4677479908995753</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4040499693162579</v>
+        <v>0.4345805642026567</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.21395513802022</v>
+        <v>51.77423680135642</v>
       </c>
       <c r="C11" t="n">
-        <v>1.099308824539185</v>
+        <v>1.198922610282898</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5321395513802022</v>
+        <v>0.5177423680135641</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5170942489920585</v>
+        <v>0.4838047941492636</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.1150701995692</v>
+        <v>54.20860042041886</v>
       </c>
       <c r="C12" t="n">
-        <v>1.178907862802347</v>
+        <v>1.127694445848465</v>
       </c>
       <c r="D12" t="n">
-        <v>0.521150701995692</v>
+        <v>0.5420860042041886</v>
       </c>
       <c r="E12" t="n">
-        <v>0.489007859050086</v>
+        <v>0.5218646187378221</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.2626666320643</v>
+        <v>43.37909497487003</v>
       </c>
       <c r="C13" t="n">
-        <v>1.321567492435376</v>
+        <v>1.317359248797099</v>
       </c>
       <c r="D13" t="n">
-        <v>0.442626666320643</v>
+        <v>0.4337909497487002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3741256949999551</v>
+        <v>0.3761915007432018</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.32055640619728</v>
+        <v>51.06073581951401</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9367191469296813</v>
+        <v>1.679785519341628</v>
       </c>
       <c r="D14" t="n">
-        <v>0.663205564061973</v>
+        <v>0.5106073581951401</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6349328774091851</v>
+        <v>0.46227087913313</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.6587686744695</v>
+        <v>74.77729046099014</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5394586444095087</v>
+        <v>0.6366023910047565</v>
       </c>
       <c r="D15" t="n">
-        <v>0.736587686744695</v>
+        <v>0.7477729046099014</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7251514048400483</v>
+        <v>0.7445710175177125</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.40974402892758</v>
+        <v>67.82999852939903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7263343467377126</v>
+        <v>0.9214341084162394</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7640974402892758</v>
+        <v>0.6782999852939904</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7530116992766135</v>
+        <v>0.6650002261632435</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.13633047575382</v>
+        <v>50.6622087272958</v>
       </c>
       <c r="C17" t="n">
-        <v>1.182386408555063</v>
+        <v>1.348160581812069</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5313633047575382</v>
+        <v>0.506622087272958</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5006513745686484</v>
+        <v>0.4666786258151535</v>
       </c>
     </row>
   </sheetData>
